--- a/query/sql_data.xlsx
+++ b/query/sql_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\IntelliJ\OnlineJudge\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BFDC00-9E16-49EA-82D9-101B69BDB200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7198F7-1B13-4DE6-98AE-C7267D8C5F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{F2AE9792-C39F-48B0-8FC0-5EC2A155CB17}"/>
+    <workbookView xWindow="8064" yWindow="2148" windowWidth="18096" windowHeight="11544" xr2:uid="{F2AE9792-C39F-48B0-8FC0-5EC2A155CB17}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>problemKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,31 +63,6 @@
   </si>
   <si>
     <t>src</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总时间限制: 1000ms	内存限制: 32000kB
-#### 描述
-小学数学作业有很多简单的加法算术，真烦，聪明的你写一个程序解决这些烦人的问题然后开心玩耍吧~
-#### 输入
-输入t组整数对 a b，代表每组的加数和被加数
-#### 输出
-对于每组数据输出每组a+b的结果并换行
-#### 样例输入
-```
-3
-1 2
-3 3
-4 4
-```
-#### 样例输出
-```
-3
-6
-8
-```
-#### 提示
-测试用例，素来测测你的码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,6 +232,38 @@
 	return 0;
 }
 ```</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memoryLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#### 描述
+小学数学作业有很多简单的加法算术，真烦，聪明的你写一个程序解决这些烦人的问题然后开心玩耍吧~
+#### 输入
+输入t组整数对 a b，代表每组的加数和被加数
+#### 输出
+对于每组数据输出每组a+b的结果并换行
+#### 样例输入
+```
+3
+1 2
+3 3
+4 4
+```
+#### 样例输出
+```
+3
+6
+8
+```
+#### 提示
+测试用例，素来测测你的码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,9 +637,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D068A5-6A1E-4715-9F9C-45E12D3927C7}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -641,9 +648,11 @@
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="54.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,13 +666,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -674,13 +689,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>32000</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -705,16 +726,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -735,16 +756,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -769,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -783,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -797,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -811,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -825,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -839,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -853,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -867,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -881,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -895,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>23</v>
@@ -909,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>25</v>
@@ -923,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>27</v>
@@ -937,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>29</v>
@@ -951,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -965,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>33</v>
@@ -979,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -993,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19">
         <v>37</v>
@@ -1007,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>39</v>
@@ -1021,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>181</v>
@@ -1035,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>183</v>
@@ -1049,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>185</v>
@@ -1063,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24">
         <v>187</v>
@@ -1077,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>189</v>
@@ -1091,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>191</v>
@@ -1105,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>193</v>
@@ -1119,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>195</v>
@@ -1133,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>197</v>
@@ -1147,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>199</v>
@@ -1161,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>201</v>
@@ -1177,7 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A2724C-9099-46F3-A0AF-D0B226F03EC0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1189,19 +1210,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="372.6" x14ac:dyDescent="0.25">
@@ -1218,7 +1239,7 @@
         <v>44837</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/query/sql_data.xlsx
+++ b/query/sql_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\IntelliJ\OnlineJudge\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7198F7-1B13-4DE6-98AE-C7267D8C5F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC5B513-045B-40FC-A9C4-E4524AE57130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8064" yWindow="2148" windowWidth="18096" windowHeight="11544" xr2:uid="{F2AE9792-C39F-48B0-8FC0-5EC2A155CB17}"/>
+    <workbookView xWindow="4944" yWindow="816" windowWidth="18096" windowHeight="11544" xr2:uid="{F2AE9792-C39F-48B0-8FC0-5EC2A155CB17}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C++~~basic~~easy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,6 +260,10 @@
 ```
 #### 提示
 测试用例，素来测测你的码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy C++ basic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D068A5-6A1E-4715-9F9C-45E12D3927C7}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -650,6 +650,7 @@
     <col min="4" max="4" width="54.109375" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,13 +667,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -689,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
@@ -701,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -726,16 +727,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -756,16 +757,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -790,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -804,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -818,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -832,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -846,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -860,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -874,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -888,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -902,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -916,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>23</v>
@@ -930,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>25</v>
@@ -944,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>27</v>
@@ -958,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>29</v>
@@ -972,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -986,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>33</v>
@@ -1000,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -1014,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>37</v>
@@ -1028,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20">
         <v>39</v>
@@ -1042,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>181</v>
@@ -1056,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>183</v>
@@ -1070,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>185</v>
@@ -1084,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24">
         <v>187</v>
@@ -1098,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>189</v>
@@ -1112,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>191</v>
@@ -1126,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>193</v>
@@ -1140,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>195</v>
@@ -1154,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>197</v>
@@ -1168,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>199</v>
@@ -1182,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>201</v>
@@ -1210,19 +1211,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="372.6" x14ac:dyDescent="0.25">
@@ -1239,7 +1240,7 @@
         <v>44837</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/query/sql_data.xlsx
+++ b/query/sql_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\IntelliJ\OnlineJudge\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC5B513-045B-40FC-A9C4-E4524AE57130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C21690-D75E-423E-A782-B3611F64874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="816" windowWidth="18096" windowHeight="11544" xr2:uid="{F2AE9792-C39F-48B0-8FC0-5EC2A155CB17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{F2AE9792-C39F-48B0-8FC0-5EC2A155CB17}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="2" r:id="rId2"/>
     <sheet name="io" sheetId="3" r:id="rId3"/>
     <sheet name="solution" sheetId="4" r:id="rId4"/>
+    <sheet name="submission" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="119">
   <si>
     <t>problemKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +56,6 @@
   </si>
   <si>
     <t>tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A+B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,32 +232,340 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#### 描述
-小学数学作业有很多简单的加法算术，真烦，聪明的你写一个程序解决这些烦人的问题然后开心玩耍吧~
-#### 输入
-输入t组整数对 a b，代表每组的加数和被加数
-#### 输出
-对于每组数据输出每组a+b的结果并换行
-#### 样例输入
-```
-3
-1 2
-3 3
-4 4
-```
-#### 样例输出
-```
-3
-6
-8
-```
-#### 提示
-测试用例，素来测测你的码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>easy C++ basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">A+B_x000D_
+</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#### 描述_x000D_
+_x000D_
+求输入两数之和_x000D_
+_x000D_
+#### 输入_x000D_
+_x000D_
+输入$t$组整数对$[a, b]$_x000D_
+_x000D_
+#### 输出_x000D_
+_x000D_
+对于每组数据输出每组$a + b$的结果并换行_x000D_
+_x000D_
+#### 样例输入_x000D_
+_x000D_
+```_x000D_
+3_x000D_
+1 2_x000D_
+3 3_x000D_
+4 4_x000D_
+```_x000D_
+_x000D_
+#### 样例输出_x000D_
+_x000D_
+```_x000D_
+3_x000D_
+6_x000D_
+8_x000D_
+```_x000D_
+_x000D_
+#### 提示_x000D_
+_x000D_
+无_x000D_
+</t>
+  </si>
+  <si>
+    <t>Impossible C++ String Original</t>
+  </si>
+  <si>
+    <t>A-B</t>
+  </si>
+  <si>
+    <t>src2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#### 描述_x000D_
+_x000D_
+求输入两数之差_x000D_
+_x000D_
+#### 输入_x000D_
+_x000D_
+输入$t$组整数对$[a, b]$_x000D_
+_x000D_
+#### 输出_x000D_
+_x000D_
+对于每组数据输出每组$a - b$的结果并换行_x000D_
+_x000D_
+#### 样例输入_x000D_
+_x000D_
+```_x000D_
+3_x000D_
+2 1_x000D_
+3 3_x000D_
+4 4_x000D_
+```_x000D_
+_x000D_
+#### 样例输出_x000D_
+_x000D_
+```_x000D_
+1_x000D_
+0_x000D_
+0_x000D_
+```_x000D_
+_x000D_
+#### 提示_x000D_
+_x000D_
+无_x000D_
+</t>
+  </si>
+  <si>
+    <t>Advanced C++ String</t>
+  </si>
+  <si>
+    <t>A*B</t>
+  </si>
+  <si>
+    <t>src3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#### 描述_x000D_
+_x000D_
+求输入两数之积_x000D_
+_x000D_
+#### 输入_x000D_
+_x000D_
+输入$t$组整数对$[a, b]$_x000D_
+_x000D_
+#### 输出_x000D_
+_x000D_
+对于每组数据输出每组$a * b$的结果并换行_x000D_
+_x000D_
+#### 样例输入_x000D_
+_x000D_
+```_x000D_
+3_x000D_
+1 2_x000D_
+3 3_x000D_
+4 4_x000D_
+```_x000D_
+_x000D_
+#### 样例输出_x000D_
+_x000D_
+```_x000D_
+2_x000D_
+9_x000D_
+16_x000D_
+```_x000D_
+_x000D_
+#### 提示_x000D_
+_x000D_
+无_x000D_
+</t>
+  </si>
+  <si>
+    <t>Basic C++ Original IO</t>
+  </si>
+  <si>
+    <t>A/B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#### 描述_x000D_
+_x000D_
+求输入两数之商_x000D_
+_x000D_
+#### 输入_x000D_
+_x000D_
+输入$t$组整数对$[a, b]$_x000D_
+_x000D_
+#### 输出_x000D_
+_x000D_
+对于每组数据输出每组$a / b$的结果并换行，若除数为0则输出$error$_x000D_
+_x000D_
+#### 样例输入_x000D_
+_x000D_
+```_x000D_
+3_x000D_
+9 1_x000D_
+3 3_x000D_
+4 0_x000D_
+```_x000D_
+_x000D_
+#### 样例输出_x000D_
+_x000D_
+```_x000D_
+9_x000D_
+1_x000D_
+error_x000D_
+```_x000D_
+_x000D_
+#### 提示_x000D_
+_x000D_
+无_x000D_
+</t>
+  </si>
+  <si>
+    <t>Advanced C++ BasicIO Original</t>
+  </si>
+  <si>
+    <t>C+D</t>
+  </si>
+  <si>
+    <t>CCCCCDDDDD</t>
+  </si>
+  <si>
+    <t>Basic C++ BasicIO Add Original</t>
+  </si>
+  <si>
+    <t>C-D</t>
+  </si>
+  <si>
+    <t>DPDPDPDPDP1</t>
+  </si>
+  <si>
+    <t>Extreme Algorithm DP Original</t>
+  </si>
+  <si>
+    <t>C*D</t>
+  </si>
+  <si>
+    <t>D P D P D P 1</t>
+  </si>
+  <si>
+    <t>Advanced Algorithm DP Original</t>
+  </si>
+  <si>
+    <t>C/D</t>
+  </si>
+  <si>
+    <t>CDEFGG</t>
+  </si>
+  <si>
+    <t>动态规划 #1</t>
+  </si>
+  <si>
+    <t>dynamic DYNAMIC 1</t>
+  </si>
+  <si>
+    <t>贪心算法 #1</t>
+  </si>
+  <si>
+    <t>GREEDY1</t>
+  </si>
+  <si>
+    <t>Extreme Greedy Algorithm Original</t>
+  </si>
+  <si>
+    <t>贪心算法 #2</t>
+  </si>
+  <si>
+    <t>GREEDY2</t>
+  </si>
+  <si>
+    <t>Advanced Greedy Algorithm</t>
+  </si>
+  <si>
+    <t>动态规划 #2</t>
+  </si>
+  <si>
+    <t>dynamic DYNAMIC Programming</t>
+  </si>
+  <si>
+    <t>DYNAMIC Programming #3</t>
+  </si>
+  <si>
+    <t>Dynamic Programming #1</t>
+  </si>
+  <si>
+    <t>Dynamic Programming #4</t>
+  </si>
+  <si>
+    <t>Extreme Algorithm DP</t>
+  </si>
+  <si>
+    <t>Greedy #2</t>
+  </si>
+  <si>
+    <t>Greedy #1</t>
+  </si>
+  <si>
+    <t>Extreme Greedy DP Original</t>
+  </si>
+  <si>
+    <t>Balanced Search Tree</t>
+  </si>
+  <si>
+    <t>BST1</t>
+  </si>
+  <si>
+    <t>Advanced Tree Algorithm</t>
+  </si>
+  <si>
+    <t>Pruning</t>
+  </si>
+  <si>
+    <t>src4</t>
+  </si>
+  <si>
+    <t>Pruning test1</t>
+  </si>
+  <si>
+    <t>Advanced Tree Original BTree</t>
+  </si>
+  <si>
+    <t>RB-Tree</t>
+  </si>
+  <si>
+    <t>RB TREE1</t>
+  </si>
+  <si>
+    <t>Extreme Algorithm Original</t>
+  </si>
+  <si>
+    <t>submissionKey</t>
+  </si>
+  <si>
+    <t>userKey</t>
+  </si>
+  <si>
+    <t>problemKey</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>CompileError</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>c_cpp</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>TimeLimitExceeded</t>
+  </si>
+  <si>
+    <t>InternalError</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>WrongAnswer</t>
   </si>
 </sst>
 </file>
@@ -313,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +622,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D068A5-6A1E-4715-9F9C-45E12D3927C7}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -667,42 +971,484 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1000</v>
       </c>
-      <c r="F2" s="1">
-        <v>32000</v>
+      <c r="F2">
+        <v>32768</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>32768</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>32768</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>32768</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>32768</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>32768</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>32768</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>32768</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>32768</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <v>32768</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>32768</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>32768</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <v>32768</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>32768</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
+        <v>32768</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>32768</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <v>32768</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19">
+        <v>32768</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -727,16 +1473,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -757,16 +1503,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -791,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -805,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -819,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -833,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -847,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -861,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -875,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -889,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -903,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -917,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>23</v>
@@ -931,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>25</v>
@@ -945,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>27</v>
@@ -959,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>29</v>
@@ -973,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -987,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>33</v>
@@ -1001,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -1015,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19">
         <v>37</v>
@@ -1029,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>39</v>
@@ -1043,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>181</v>
@@ -1057,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>183</v>
@@ -1071,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>185</v>
@@ -1085,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>187</v>
@@ -1099,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>189</v>
@@ -1113,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>191</v>
@@ -1127,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>193</v>
@@ -1141,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>195</v>
@@ -1155,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>197</v>
@@ -1169,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>199</v>
@@ -1183,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>201</v>
@@ -1199,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A2724C-9099-46F3-A0AF-D0B226F03EC0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1211,19 +1957,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="372.6" x14ac:dyDescent="0.25">
@@ -1240,7 +1986,529 @@
         <v>44837</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB18FBC-F078-4B53-8CD6-15C40B048447}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44838.6565625</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44838.659432870372</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44838.677685185183</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44839.629212962966</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5">
+        <v>1303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44839.631365740737</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6">
+        <v>243</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44839.631828703707</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44839.633912037039</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44843.634884259256</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44839.63621527778</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3">
+        <v>44839.639085648145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44839.674016203702</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12">
+        <v>449</v>
+      </c>
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44839.785717592589</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13">
+        <v>242</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44839.786157407405</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14">
+        <v>1062</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44841.79247685185</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44841.803113425929</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16">
+        <v>114</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44842.805069444446</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44842.808912037035</v>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>44842.820775462962</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44842.820775462962</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44840.820775462962</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44843.85601851852</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22">
+        <v>239</v>
+      </c>
+      <c r="G22" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/query/sql_data.xlsx
+++ b/query/sql_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\IntelliJ\OnlineJudge\query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C21690-D75E-423E-A782-B3611F64874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020B4F5E-6766-422B-80D2-B39A43023EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{F2AE9792-C39F-48B0-8FC0-5EC2A155CB17}"/>
+    <workbookView xWindow="9240" yWindow="2556" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="5" xr2:uid="{F2AE9792-C39F-48B0-8FC0-5EC2A155CB17}"/>
   </bookViews>
   <sheets>
     <sheet name="problem" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="io" sheetId="3" r:id="rId3"/>
     <sheet name="solution" sheetId="4" r:id="rId4"/>
     <sheet name="submission" sheetId="5" r:id="rId5"/>
+    <sheet name="chatting" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,31 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="119">
-  <si>
-    <t>problemKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="136">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,18 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ioKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 2</t>
   </si>
   <si>
@@ -181,20 +146,289 @@
     <t>100 101</t>
   </si>
   <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>src2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#### 描述_x000D_
+_x000D_
+求输入两数之差_x000D_
+_x000D_
+#### 输入_x000D_
+_x000D_
+输入$t$组整数对$[a, b]$_x000D_
+_x000D_
+#### 输出_x000D_
+_x000D_
+对于每组数据输出每组$a - b$的结果并换行_x000D_
+_x000D_
+#### 样例输入_x000D_
+_x000D_
+```_x000D_
+3_x000D_
+2 1_x000D_
+3 3_x000D_
+4 4_x000D_
+```_x000D_
+_x000D_
+#### 样例输出_x000D_
+_x000D_
+```_x000D_
+1_x000D_
+0_x000D_
+0_x000D_
+```_x000D_
+_x000D_
+#### 提示_x000D_
+_x000D_
+无_x000D_
+</t>
+  </si>
+  <si>
+    <t>Advanced C++ String</t>
+  </si>
+  <si>
+    <t>src3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#### 描述_x000D_
+_x000D_
+求输入两数之积_x000D_
+_x000D_
+#### 输入_x000D_
+_x000D_
+输入$t$组整数对$[a, b]$_x000D_
+_x000D_
+#### 输出_x000D_
+_x000D_
+对于每组数据输出每组$a * b$的结果并换行_x000D_
+_x000D_
+#### 样例输入_x000D_
+_x000D_
+```_x000D_
+3_x000D_
+1 2_x000D_
+3 3_x000D_
+4 4_x000D_
+```_x000D_
+_x000D_
+#### 样例输出_x000D_
+_x000D_
+```_x000D_
+2_x000D_
+9_x000D_
+16_x000D_
+```_x000D_
+_x000D_
+#### 提示_x000D_
+_x000D_
+无_x000D_
+</t>
+  </si>
+  <si>
+    <t>Basic C++ Original IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#### 描述_x000D_
+_x000D_
+求输入两数之商_x000D_
+_x000D_
+#### 输入_x000D_
+_x000D_
+输入$t$组整数对$[a, b]$_x000D_
+_x000D_
+#### 输出_x000D_
+_x000D_
+对于每组数据输出每组$a / b$的结果并换行，若除数为0则输出$error$_x000D_
+_x000D_
+#### 样例输入_x000D_
+_x000D_
+```_x000D_
+3_x000D_
+9 1_x000D_
+3 3_x000D_
+4 0_x000D_
+```_x000D_
+_x000D_
+#### 样例输出_x000D_
+_x000D_
+```_x000D_
+9_x000D_
+1_x000D_
+error_x000D_
+```_x000D_
+_x000D_
+#### 提示_x000D_
+_x000D_
+无_x000D_
+</t>
+  </si>
+  <si>
+    <t>Advanced C++ BasicIO Original</t>
+  </si>
+  <si>
+    <t>CCCCCDDDDD</t>
+  </si>
+  <si>
+    <t>Basic C++ BasicIO Add Original</t>
+  </si>
+  <si>
+    <t>DPDPDPDPDP1</t>
+  </si>
+  <si>
+    <t>Extreme Algorithm DP Original</t>
+  </si>
+  <si>
+    <t>D P D P D P 1</t>
+  </si>
+  <si>
+    <t>Advanced Algorithm DP Original</t>
+  </si>
+  <si>
+    <t>CDEFGG</t>
+  </si>
+  <si>
+    <t>dynamic DYNAMIC 1</t>
+  </si>
+  <si>
+    <t>GREEDY1</t>
+  </si>
+  <si>
+    <t>Extreme Greedy Algorithm Original</t>
+  </si>
+  <si>
+    <t>GREEDY2</t>
+  </si>
+  <si>
+    <t>Advanced Greedy Algorithm</t>
+  </si>
+  <si>
+    <t>dynamic DYNAMIC Programming</t>
+  </si>
+  <si>
+    <t>DYNAMIC Programming #3</t>
+  </si>
+  <si>
+    <t>Dynamic Programming #4</t>
+  </si>
+  <si>
+    <t>Extreme Algorithm DP</t>
+  </si>
+  <si>
+    <t>Greedy #1</t>
+  </si>
+  <si>
+    <t>Extreme Greedy DP Original</t>
+  </si>
+  <si>
+    <t>BST1</t>
+  </si>
+  <si>
+    <t>Advanced Tree Algorithm</t>
+  </si>
+  <si>
+    <t>src4</t>
+  </si>
+  <si>
+    <t>Pruning test1</t>
+  </si>
+  <si>
+    <t>Advanced Tree Original BTree</t>
+  </si>
+  <si>
+    <t>RB-Tree</t>
+  </si>
+  <si>
+    <t>RB TREE1</t>
+  </si>
+  <si>
+    <t>Extreme Algorithm Original</t>
+  </si>
+  <si>
+    <t>submissionKey</t>
+  </si>
+  <si>
+    <t>userKey</t>
+  </si>
+  <si>
+    <t>problemKey</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>CompileError</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>c_cpp</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>TimeLimitExceeded</t>
+  </si>
+  <si>
+    <t>InternalError</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>WrongAnswer</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>lty</t>
+  </si>
+  <si>
+    <t>cpp</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
     <t>solutionKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>overview</t>
   </si>
   <si>
     <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lty0</t>
+  </si>
+  <si>
+    <t>SOLUTION</t>
+  </si>
+  <si>
+    <t>this is a SOLUTION</t>
   </si>
   <si>
     <t>### 界面需求
@@ -221,22 +455,36 @@
 	return 0;
 }
 ```</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>THIS IS A solution</t>
+  </si>
+  <si>
+    <t>problemName</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>timeLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>memoryLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A+B_x000D_
-</t>
-  </si>
-  <si>
-    <t>src</t>
+  </si>
+  <si>
+    <t>testpoint</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>Add them up!</t>
   </si>
   <si>
     <t xml:space="preserve">#### 描述_x000D_
@@ -250,50 +498,6 @@
 #### 输出_x000D_
 _x000D_
 对于每组数据输出每组$a + b$的结果并换行_x000D_
-_x000D_
-#### 样例输入_x000D_
-_x000D_
-```_x000D_
-3_x000D_
-1 2_x000D_
-3 3_x000D_
-4 4_x000D_
-```_x000D_
-_x000D_
-#### 样例输出_x000D_
-_x000D_
-```_x000D_
-3_x000D_
-6_x000D_
-8_x000D_
-```_x000D_
-_x000D_
-#### 提示_x000D_
-_x000D_
-无_x000D_
-</t>
-  </si>
-  <si>
-    <t>Impossible C++ String Original</t>
-  </si>
-  <si>
-    <t>A-B</t>
-  </si>
-  <si>
-    <t>src2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#### 描述_x000D_
-_x000D_
-求输入两数之差_x000D_
-_x000D_
-#### 输入_x000D_
-_x000D_
-输入$t$组整数对$[a, b]$_x000D_
-_x000D_
-#### 输出_x000D_
-_x000D_
-对于每组数据输出每组$a - b$的结果并换行_x000D_
 _x000D_
 #### 样例输入_x000D_
 _x000D_
@@ -307,9 +511,9 @@
 #### 样例输出_x000D_
 _x000D_
 ```_x000D_
-1_x000D_
-0_x000D_
-0_x000D_
+3_x000D_
+6_x000D_
+8_x000D_
 ```_x000D_
 _x000D_
 #### 提示_x000D_
@@ -318,263 +522,91 @@
 </t>
   </si>
   <si>
-    <t>Advanced C++ String</t>
-  </si>
-  <si>
-    <t>A*B</t>
-  </si>
-  <si>
-    <t>src3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#### 描述_x000D_
-_x000D_
-求输入两数之积_x000D_
-_x000D_
-#### 输入_x000D_
-_x000D_
-输入$t$组整数对$[a, b]$_x000D_
-_x000D_
-#### 输出_x000D_
-_x000D_
-对于每组数据输出每组$a * b$的结果并换行_x000D_
-_x000D_
-#### 样例输入_x000D_
-_x000D_
-```_x000D_
-3_x000D_
-1 2_x000D_
-3 3_x000D_
-4 4_x000D_
-```_x000D_
-_x000D_
-#### 样例输出_x000D_
-_x000D_
-```_x000D_
-2_x000D_
-9_x000D_
-16_x000D_
-```_x000D_
-_x000D_
-#### 提示_x000D_
-_x000D_
-无_x000D_
-</t>
-  </si>
-  <si>
-    <t>Basic C++ Original IO</t>
-  </si>
-  <si>
-    <t>A/B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#### 描述_x000D_
-_x000D_
-求输入两数之商_x000D_
-_x000D_
-#### 输入_x000D_
-_x000D_
-输入$t$组整数对$[a, b]$_x000D_
-_x000D_
-#### 输出_x000D_
-_x000D_
-对于每组数据输出每组$a / b$的结果并换行，若除数为0则输出$error$_x000D_
-_x000D_
-#### 样例输入_x000D_
-_x000D_
-```_x000D_
-3_x000D_
-9 1_x000D_
-3 3_x000D_
-4 0_x000D_
-```_x000D_
-_x000D_
-#### 样例输出_x000D_
-_x000D_
-```_x000D_
-9_x000D_
-1_x000D_
-error_x000D_
-```_x000D_
-_x000D_
-#### 提示_x000D_
-_x000D_
-无_x000D_
-</t>
-  </si>
-  <si>
-    <t>Advanced C++ BasicIO Original</t>
-  </si>
-  <si>
-    <t>C+D</t>
-  </si>
-  <si>
-    <t>CCCCCDDDDD</t>
-  </si>
-  <si>
-    <t>Basic C++ BasicIO Add Original</t>
-  </si>
-  <si>
-    <t>C-D</t>
-  </si>
-  <si>
-    <t>DPDPDPDPDP1</t>
-  </si>
-  <si>
-    <t>Extreme Algorithm DP Original</t>
-  </si>
-  <si>
-    <t>C*D</t>
-  </si>
-  <si>
-    <t>D P D P D P 1</t>
-  </si>
-  <si>
-    <t>Advanced Algorithm DP Original</t>
-  </si>
-  <si>
-    <t>C/D</t>
-  </si>
-  <si>
-    <t>CDEFGG</t>
-  </si>
-  <si>
-    <t>动态规划 #1</t>
-  </si>
-  <si>
-    <t>dynamic DYNAMIC 1</t>
-  </si>
-  <si>
-    <t>贪心算法 #1</t>
-  </si>
-  <si>
-    <t>GREEDY1</t>
-  </si>
-  <si>
-    <t>Extreme Greedy Algorithm Original</t>
-  </si>
-  <si>
-    <t>贪心算法 #2</t>
-  </si>
-  <si>
-    <t>GREEDY2</t>
-  </si>
-  <si>
-    <t>Advanced Greedy Algorithm</t>
-  </si>
-  <si>
-    <t>动态规划 #2</t>
-  </si>
-  <si>
-    <t>dynamic DYNAMIC Programming</t>
-  </si>
-  <si>
-    <t>DYNAMIC Programming #3</t>
-  </si>
-  <si>
-    <t>Dynamic Programming #1</t>
-  </si>
-  <si>
-    <t>Dynamic Programming #4</t>
-  </si>
-  <si>
-    <t>Extreme Algorithm DP</t>
-  </si>
-  <si>
-    <t>Greedy #2</t>
-  </si>
-  <si>
-    <t>Greedy #1</t>
-  </si>
-  <si>
-    <t>Extreme Greedy DP Original</t>
-  </si>
-  <si>
-    <t>Balanced Search Tree</t>
-  </si>
-  <si>
-    <t>BST1</t>
-  </si>
-  <si>
-    <t>Advanced Tree Algorithm</t>
-  </si>
-  <si>
-    <t>Pruning</t>
-  </si>
-  <si>
-    <t>src4</t>
-  </si>
-  <si>
-    <t>Pruning test1</t>
-  </si>
-  <si>
-    <t>Advanced Tree Original BTree</t>
-  </si>
-  <si>
-    <t>RB-Tree</t>
-  </si>
-  <si>
-    <t>RB TREE1</t>
-  </si>
-  <si>
-    <t>Extreme Algorithm Original</t>
-  </si>
-  <si>
-    <t>submissionKey</t>
-  </si>
-  <si>
-    <t>userKey</t>
-  </si>
-  <si>
-    <t>problemKey</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>runtime</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>CompileError</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>Accepted</t>
-  </si>
-  <si>
-    <t>c_cpp</t>
-  </si>
-  <si>
-    <t>Finished</t>
-  </si>
-  <si>
-    <t>TimeLimitExceeded</t>
-  </si>
-  <si>
-    <t>InternalError</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>WrongAnswer</t>
+    <t>basic C++ addition</t>
+  </si>
+  <si>
+    <t>Substraction</t>
+  </si>
+  <si>
+    <t>Faster addition</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Strange letters</t>
+  </si>
+  <si>
+    <t>Find the letter 'D'</t>
+  </si>
+  <si>
+    <t>What is this?</t>
+  </si>
+  <si>
+    <t>Spaces</t>
+  </si>
+  <si>
+    <t>Dymanic programming</t>
+  </si>
+  <si>
+    <t>The fastest one</t>
+  </si>
+  <si>
+    <t>A mailman's day</t>
+  </si>
+  <si>
+    <t>Where to start?</t>
+  </si>
+  <si>
+    <t>A full backpack</t>
+  </si>
+  <si>
+    <t>Not this one</t>
+  </si>
+  <si>
+    <t>Greedier than greedy</t>
+  </si>
+  <si>
+    <t>Soymilk tree</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>ioKey</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>chatKey</t>
+  </si>
+  <si>
+    <t>senderKey</t>
+  </si>
+  <si>
+    <t>senderName</t>
+  </si>
+  <si>
+    <t>receiverKey</t>
+  </si>
+  <si>
+    <t>receiverName</t>
+  </si>
+  <si>
+    <t>aaatest chat</t>
+  </si>
+  <si>
+    <t>reply to aaatest chat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,10 +653,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -944,7 +976,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -959,42 +991,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
+      <c r="B2" t="s">
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -1003,10 +1035,10 @@
         <v>32768</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,13 +1046,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>1000</v>
@@ -1032,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1040,13 +1072,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -1058,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1066,13 +1098,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -1084,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1092,13 +1124,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>1000</v>
@@ -1110,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,13 +1150,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -1136,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,13 +1176,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>1000</v>
@@ -1162,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>1000</v>
@@ -1188,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1196,13 +1228,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>1000</v>
@@ -1214,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,13 +1254,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
       </c>
       <c r="E11">
         <v>1000</v>
@@ -1240,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,13 +1280,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -1266,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1274,13 +1306,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>1000</v>
@@ -1292,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,13 +1332,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>1000</v>
@@ -1318,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1326,13 +1358,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>1000</v>
@@ -1344,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1352,13 +1384,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>1000</v>
@@ -1370,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,13 +1410,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>1000</v>
@@ -1396,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1404,13 +1436,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -1422,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,13 +1462,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E19">
         <v>1000</v>
@@ -1448,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1473,16 +1505,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1503,16 +1535,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1537,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1551,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -1565,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -1579,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -1593,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -1607,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1621,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -1635,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>19</v>
@@ -1649,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -1663,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>23</v>
@@ -1677,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>25</v>
@@ -1691,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>27</v>
@@ -1705,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>29</v>
@@ -1719,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>31</v>
@@ -1733,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>33</v>
@@ -1747,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -1761,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>37</v>
@@ -1775,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>39</v>
@@ -1789,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>181</v>
@@ -1803,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>183</v>
@@ -1817,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>185</v>
@@ -1831,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>187</v>
@@ -1845,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>189</v>
@@ -1859,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>191</v>
@@ -1873,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>193</v>
@@ -1887,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>195</v>
@@ -1901,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>197</v>
@@ -1915,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>199</v>
@@ -1929,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>201</v>
@@ -1943,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A2724C-9099-46F3-A0AF-D0B226F03EC0}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1955,24 +1987,33 @@
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="372.6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1980,13 +2021,48 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44837</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44838</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44853</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1997,35 +2073,1819 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB18FBC-F078-4B53-8CD6-15C40B048447}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <v>1303</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>243</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>449</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <v>242</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>1062</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <v>143</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <v>114</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22">
+        <v>239</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23">
+        <v>236</v>
+      </c>
+      <c r="H23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44836.516238425924</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24">
+        <v>454</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25">
+        <v>454</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26">
+        <v>447</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27">
+        <v>437</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28">
+        <v>332</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29">
+        <v>409</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30">
+        <v>229</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>52</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>54</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>56</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35">
+        <v>264</v>
+      </c>
+      <c r="H35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36">
+        <v>264</v>
+      </c>
+      <c r="H36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>58</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>59</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38">
+        <v>62</v>
+      </c>
+      <c r="H38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>60</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>61</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40">
+        <v>92</v>
+      </c>
+      <c r="H40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>62</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41">
+        <v>65</v>
+      </c>
+      <c r="H41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>63</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42">
+        <v>67</v>
+      </c>
+      <c r="H42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>64</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43">
+        <v>60</v>
+      </c>
+      <c r="H43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>65</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44845.606516203705</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44">
+        <v>276</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>66</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44845.606516203705</v>
+      </c>
+      <c r="F45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45">
+        <v>278</v>
+      </c>
+      <c r="H45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>67</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44845.606516203705</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46">
+        <v>199</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>68</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="2">
+        <v>44845.606516203705</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47">
+        <v>252</v>
+      </c>
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>69</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44845.606516203705</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48">
+        <v>258</v>
+      </c>
+      <c r="H48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>70</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44845.606516203705</v>
+      </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49">
+        <v>117</v>
+      </c>
+      <c r="H49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>71</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="2">
+        <v>44845.606516203705</v>
+      </c>
+      <c r="F50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50">
+        <v>161</v>
+      </c>
+      <c r="H50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>72</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51">
+        <v>142</v>
+      </c>
+      <c r="H51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>73</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52">
+        <v>117</v>
+      </c>
+      <c r="H52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>74</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>75</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54">
+        <v>129</v>
+      </c>
+      <c r="H54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>76</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55">
+        <v>138</v>
+      </c>
+      <c r="H55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>77</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56">
+        <v>-1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>78</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57">
+        <v>-1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>79</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>80</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F59" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59">
+        <v>-1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>81</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>82</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61">
+        <v>-1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>83</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62">
+        <v>55</v>
+      </c>
+      <c r="H62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>84</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F63" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63">
+        <v>54</v>
+      </c>
+      <c r="H63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>85</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64">
+        <v>55</v>
+      </c>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>86</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65">
+        <v>54</v>
+      </c>
+      <c r="H65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>87</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66">
+        <v>54</v>
+      </c>
+      <c r="H66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>88</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="2">
+        <v>44858.57068287037</v>
+      </c>
+      <c r="F67" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67">
+        <v>145</v>
+      </c>
+      <c r="H67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>89</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="2">
+        <v>44857.894618055558</v>
+      </c>
+      <c r="F68" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68">
+        <v>133</v>
+      </c>
+      <c r="H68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0D00FC-3019-49FC-BA6B-5F346CDCAD48}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2033,22 +3893,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
-        <v>44838.6565625</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>111</v>
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="2">
+        <v>44858.623067129629</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2056,459 +3916,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44838.659432870372</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44838.677685185183</v>
-      </c>
-      <c r="E4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>44839.629212962966</v>
-      </c>
-      <c r="E5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5">
-        <v>1303</v>
-      </c>
-      <c r="G5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>44839.631365740737</v>
-      </c>
-      <c r="E6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6">
-        <v>243</v>
-      </c>
-      <c r="G6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>44839.631828703707</v>
-      </c>
-      <c r="E7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>44839.633912037039</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>44843.634884259256</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3">
-        <v>44839.63621527778</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3">
-        <v>44839.639085648145</v>
-      </c>
-      <c r="E11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>44839.674016203702</v>
-      </c>
-      <c r="E12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12">
-        <v>449</v>
-      </c>
-      <c r="G12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>44839.785717592589</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13">
-        <v>242</v>
-      </c>
-      <c r="G13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>44839.786157407405</v>
-      </c>
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14">
-        <v>1062</v>
-      </c>
-      <c r="G14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>44841.79247685185</v>
-      </c>
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15">
-        <v>143</v>
-      </c>
-      <c r="G15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>44841.803113425929</v>
-      </c>
-      <c r="E16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16">
-        <v>114</v>
-      </c>
-      <c r="G16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>44842.805069444446</v>
-      </c>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17">
-        <v>116</v>
-      </c>
-      <c r="G17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>44842.808912037035</v>
-      </c>
-      <c r="E18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>44842.820775462962</v>
-      </c>
-      <c r="E19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>41</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>44842.820775462962</v>
-      </c>
-      <c r="E20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>42</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>44840.820775462962</v>
-      </c>
-      <c r="E21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>43</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>44843.85601851852</v>
-      </c>
-      <c r="E22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22">
-        <v>239</v>
-      </c>
-      <c r="G22" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="2">
+        <v>44858.643078703702</v>
       </c>
     </row>
   </sheetData>
